--- a/HW_BLK.xlsx
+++ b/HW_BLK.xlsx
@@ -72,196 +72,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128082</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="171450"/>
-          <a:ext cx="10363200" cy="5100132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>131242</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>98020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>77499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="131242" y="5584420"/>
-          <a:ext cx="10841558" cy="5465879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>494093</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>67857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11466893" y="5657851"/>
-          <a:ext cx="6211507" cy="5211356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236032</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>366404</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="236032" y="11487150"/>
-          <a:ext cx="10493572" cy="6172200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>169983</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>18620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="18018368"/>
-          <a:ext cx="20193000" cy="7837914"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -591,6 +401,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="163286"/>
+          <a:ext cx="7466950" cy="4082143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>74397</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="4408714"/>
+          <a:ext cx="9827996" cy="5388429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -883,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T104" sqref="T104"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
